--- a/TelegramBot/ExcelReports/AllUsers.xlsx
+++ b/TelegramBot/ExcelReports/AllUsers.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои Документы\Рабочий стол\Паша\Учеба\4 курс\TgBot\TelegramBot\TelegramBot\ExcelReports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои Документы\Рабочий стол\Паша\Учеба\TgBot\TelegramBot\ExcelReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE5429B0-2BF3-47BC-A0EE-739E5B9314E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E7E8C49-69A4-4072-A7C2-785B450E16E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1778" yWindow="1065" windowWidth="16200" windowHeight="8295" xr2:uid="{BF5FA6B6-5769-4F06-8961-94FECCA766A4}"/>
+    <workbookView xWindow="1778" yWindow="1065" windowWidth="16200" windowHeight="8295" xr2:uid="{9C79175A-CC57-415C-A5A3-962FFE139BE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="User - Личное представление" guid="{447BDD96-8161-409B-9EF1-E0568199A1E9}" mergeInterval="0" personalView="1" xWindow="237" yWindow="142" windowWidth="2160" windowHeight="1106" activeSheetId="1"/>
+    <customWorkbookView name="User - Личное представление" guid="{84EFAE59-635F-4139-941A-ED398E80FEF2}" mergeInterval="0" personalView="1" xWindow="237" yWindow="142" windowWidth="2160" windowHeight="1106" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -160,8 +160,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{8B8F510F-E9DE-4329-80CC-1254CA21541E}">
-  <header guid="{8B8F510F-E9DE-4329-80CC-1254CA21541E}" dateTime="2024-03-27T00:56:46" maxSheetId="2" userName="User" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{ECF79857-9487-4F6A-B83B-04ED528D1CBA}">
+  <header guid="{ECF79857-9487-4F6A-B83B-04ED528D1CBA}" dateTime="2024-03-27T18:47:05" maxSheetId="2" userName="User" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -174,9 +174,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{8B8F510F-E9DE-4329-80CC-1254CA21541E}" name="User" id="-887013757" dateTime="2024-03-27T00:56:46"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,7 +473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43064962-461C-49D9-8026-A6EA62B07EEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32195B4A-6698-4892-A7F3-54166AAFC387}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -689,7 +687,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{447BDD96-8161-409B-9EF1-E0568199A1E9}">
+    <customSheetView guid="{84EFAE59-635F-4139-941A-ED398E80FEF2}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
